--- a/medicine/Psychotrope/Brasserie_Domus/Brasserie_Domus.xlsx
+++ b/medicine/Psychotrope/Brasserie_Domus/Brasserie_Domus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie Domus (en néerlandais : Brouwerij Domus) est une brasserie située à Louvain en province du Brabant flamand en Belgique. Elle produit principalement les bières artisanales Con Domus et Nostra Domus.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie artisanale Domus voit le jour en 1985 à l'initiative de Cyriel Roten et Alfons Swartelée dans le centre de la ville de Louvain, cité brassicole bien connue grâce à la brasserie Artois (faisant actuellement partie du groupe AB InBev).  Elle est, à l'époque, la première micro-brasserie en fonction de Belgique[1]. La brasserie située au coin de Tiensestraat et d'Eikstraat fait partie d'un ensemble plus important comprenant une auberge. Un petit pipeline conduit directement la bière de la brasserie à l'auberge.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie artisanale Domus voit le jour en 1985 à l'initiative de Cyriel Roten et Alfons Swartelée dans le centre de la ville de Louvain, cité brassicole bien connue grâce à la brasserie Artois (faisant actuellement partie du groupe AB InBev).  Elle est, à l'époque, la première micro-brasserie en fonction de Belgique. La brasserie située au coin de Tiensestraat et d'Eikstraat fait partie d'un ensemble plus important comprenant une auberge. Un petit pipeline conduit directement la bière de la brasserie à l'auberge.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Principales bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie produit en permanence deux bières :
 Con Domus, une bière blonde de type pils non filtrée titrant 5 % en volume d'alcool,
